--- a/A02QBAX_Orca Pricing Report.xlsx
+++ b/A02QBAX_Orca Pricing Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5.-LIGHTGIG\1.-TRABAJOS ONY\27-A02QBAX (LOUSIANA)\6.-REVISION ACTUALIZANDO LOS TESTP DE NUEVO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5.-LIGHTGIG\1.-TRABAJOS ONY\27-A02QBAX (LOUSIANA)\7.-REVISION CABLES CORTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26567F2-A42C-43CD-AF39-7FE50C515098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D89372-46C2-426A-9EA1-0EFBAE9C5F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="138">
   <si>
     <t>Pricing Report</t>
   </si>
@@ -399,21 +399,6 @@
     <t>ED</t>
   </si>
   <si>
-    <t>Generated: 09/24/2024, 02:46 PM</t>
-  </si>
-  <si>
-    <t>Pricing Date: 09/24/2024</t>
-  </si>
-  <si>
-    <t>240.01 HRS</t>
-  </si>
-  <si>
-    <t>179.41 HRS</t>
-  </si>
-  <si>
-    <t>197.68 HRS</t>
-  </si>
-  <si>
     <t>162.64 HRS</t>
   </si>
   <si>
@@ -436,6 +421,24 @@
   </si>
   <si>
     <t>TOTAL OVERHEAD DOLLARS:</t>
+  </si>
+  <si>
+    <t>Generated: 10/02/2024, 10:17 AM</t>
+  </si>
+  <si>
+    <t>Pricing Date: 10/02/2024</t>
+  </si>
+  <si>
+    <t>5BQ2MT-144</t>
+  </si>
+  <si>
+    <t>255.17 HRS</t>
+  </si>
+  <si>
+    <t>194.58 HRS</t>
+  </si>
+  <si>
+    <t>202.33 HRS</t>
   </si>
 </sst>
 </file>
@@ -761,7 +764,7 @@
   <dimension ref="A1:G344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +776,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -808,7 +811,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -862,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -902,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -939,237 +942,237 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>16.2</v>
       </c>
       <c r="D16">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="E16">
         <v>0.45</v>
       </c>
       <c r="F16">
-        <v>60.75</v>
+        <v>105.75</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="D17">
-        <v>1399</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>0.79</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>97.944000000000003</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>4141</v>
-      </c>
-      <c r="E18">
-        <v>0.36</v>
+        <v>1399</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
       </c>
       <c r="F18" s="1">
-        <v>1490.76</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>183.16800000000001</v>
+        <v>97.944000000000003</v>
       </c>
       <c r="D19">
-        <v>646</v>
+        <v>4141</v>
       </c>
       <c r="E19">
-        <v>1.37</v>
-      </c>
-      <c r="F19">
-        <v>885.02</v>
+        <v>0.36</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1490.76</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>559.00800000000004</v>
+        <v>183.16800000000001</v>
       </c>
       <c r="D20">
-        <v>2618</v>
+        <v>646</v>
       </c>
       <c r="E20">
-        <v>1.8</v>
+        <v>1.37</v>
       </c>
       <c r="F20" s="1">
-        <v>4712.3999999999996</v>
+        <v>885.02</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>176.256</v>
+        <v>559.00800000000004</v>
       </c>
       <c r="D21">
-        <v>2478</v>
+        <v>2618</v>
       </c>
       <c r="E21">
-        <v>0.65</v>
+        <v>1.8</v>
       </c>
       <c r="F21" s="1">
-        <v>1610.7</v>
+        <v>4712.3999999999996</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>283.96800000000002</v>
+        <v>176.256</v>
       </c>
       <c r="D22">
-        <v>5986</v>
+        <v>2478</v>
       </c>
       <c r="E22">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="F22" s="1">
-        <v>2993</v>
+        <v>1610.7</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>262.94400000000002</v>
+        <v>283.96800000000002</v>
       </c>
       <c r="D23">
-        <v>1846</v>
+        <v>5986</v>
       </c>
       <c r="E23">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="F23" s="1">
-        <v>2215.1999999999998</v>
+        <v>2993</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>842.4</v>
+        <v>262.94400000000002</v>
       </c>
       <c r="D24">
-        <v>1970</v>
+        <v>1846</v>
       </c>
       <c r="E24">
-        <v>2.67</v>
+        <v>1.2</v>
       </c>
       <c r="F24" s="1">
-        <v>5259.9</v>
+        <v>2215.1999999999998</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.248</v>
+        <v>842.4</v>
       </c>
       <c r="D25">
-        <v>62</v>
+        <v>1970</v>
       </c>
       <c r="E25">
-        <v>107.39</v>
+        <v>2.67</v>
       </c>
       <c r="F25" s="1">
-        <v>6658.18</v>
+        <v>5259.9</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>9.6000000000000002E-2</v>
+        <v>0.248</v>
       </c>
       <c r="D26">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="E26">
+        <v>107.39</v>
+      </c>
+      <c r="F26" s="1">
+        <v>6658.18</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>3.5999999999999997E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -1180,16 +1183,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D28">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -1200,300 +1203,306 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>84</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <v>2415.0680000000002</v>
-      </c>
-      <c r="E30" s="1">
-        <v>25885.91</v>
-      </c>
-    </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31">
-        <v>32.21</v>
-      </c>
-      <c r="F31" s="1">
-        <v>7729.97</v>
-      </c>
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>2436.6680000000001</v>
+      </c>
+      <c r="E31" s="1">
+        <v>26009.91</v>
+      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32">
-        <v>33615.879999999997</v>
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>135</v>
       </c>
       <c r="E32">
-        <v>0.1</v>
+        <v>32.21</v>
       </c>
       <c r="F32" s="1">
-        <v>3529.67</v>
+        <v>8218.2900000000009</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="1">
-        <v>37145.550000000003</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D33">
+        <v>34228.199999999997</v>
+      </c>
+      <c r="E33">
+        <v>0.1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3593.96</v>
+      </c>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34">
-        <v>163.96</v>
-      </c>
-      <c r="F34" s="1">
-        <v>9934.48</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1">
+        <v>37822.160000000003</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="E35">
         <v>163.96</v>
       </c>
       <c r="F35" s="1">
-        <v>29416.81</v>
+        <v>9934.48</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="1">
-        <v>39351.29</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36">
+        <v>163.96</v>
+      </c>
+      <c r="F36" s="1">
+        <v>31902.74</v>
+      </c>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="1">
-        <v>173471.35999999999</v>
-      </c>
-      <c r="G37" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1">
+        <v>41837.22</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" s="1">
-        <v>173471.35999999999</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F38" s="1">
+        <v>175987.78</v>
+      </c>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39">
-        <v>125.64</v>
-      </c>
-      <c r="F39" s="1">
-        <v>24836.400000000001</v>
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1">
+        <v>175987.78</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" s="1">
-        <v>24836.400000000001</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40">
+        <v>125.64</v>
+      </c>
+      <c r="F40" s="1">
+        <v>25420.18</v>
+      </c>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="1">
-        <v>274804.59999999998</v>
-      </c>
-      <c r="G41" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1">
+        <v>25420.18</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F42" s="1">
-        <v>63862</v>
+        <v>281067.34000000003</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="1">
-        <v>338666.6</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F43" s="1">
+        <v>63862</v>
+      </c>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44">
-        <v>240.01</v>
-      </c>
-      <c r="G44" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="1">
+        <v>344929.34</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45">
-        <v>197.68</v>
+        <v>255.17</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>202.33</v>
       </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
       </c>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>641</v>
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>641</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -1504,47 +1513,47 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>6.8000000000000005E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D58">
-        <v>17</v>
-      </c>
-      <c r="E58">
-        <v>107.39</v>
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
       </c>
       <c r="F58" s="1">
-        <v>1825.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D59">
-        <v>896</v>
-      </c>
-      <c r="E59" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="E59">
+        <v>107.39</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1825.63</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1553,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>756</v>
+        <v>896</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -1564,377 +1573,384 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>129.672</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>5453</v>
-      </c>
-      <c r="E61">
-        <v>0.36</v>
+        <v>756</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
       </c>
       <c r="F61" s="1">
-        <v>1963.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>60.624000000000002</v>
+        <v>129.672</v>
       </c>
       <c r="D62">
-        <v>1283</v>
+        <v>5453</v>
       </c>
       <c r="E62">
-        <v>0.5</v>
-      </c>
-      <c r="F62">
-        <v>641.5</v>
+        <v>0.36</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1963.08</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>256.75200000000001</v>
+        <v>60.624000000000002</v>
       </c>
       <c r="D63">
-        <v>1803</v>
+        <v>1283</v>
       </c>
       <c r="E63">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="F63" s="1">
-        <v>1766.94</v>
+        <v>641.5</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>143.49600000000001</v>
+        <v>256.75200000000001</v>
       </c>
       <c r="D64">
-        <v>2013</v>
+        <v>1803</v>
       </c>
       <c r="E64">
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
       <c r="F64" s="1">
-        <v>1207.8</v>
+        <v>1766.94</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>143.49600000000001</v>
+      </c>
+      <c r="D65">
+        <v>2013</v>
+      </c>
+      <c r="E65">
+        <v>0.6</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1207.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>32</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>32</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>0</v>
-      </c>
-      <c r="B66">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
         <v>590.69200000000001</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E67" s="1">
         <v>7404.95</v>
       </c>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" t="s">
-        <v>129</v>
-      </c>
-      <c r="E67">
-        <v>32.21</v>
-      </c>
-      <c r="F67" s="1">
-        <v>5238.28</v>
-      </c>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68">
-        <v>12643.23</v>
+        <v>33</v>
+      </c>
+      <c r="D68" t="s">
+        <v>124</v>
       </c>
       <c r="E68">
-        <v>0.1</v>
+        <v>32.21</v>
       </c>
       <c r="F68" s="1">
-        <v>1327.54</v>
+        <v>5238.28</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>35</v>
-      </c>
-      <c r="B69" t="s">
-        <v>36</v>
-      </c>
-      <c r="G69" s="1">
-        <v>13970.77</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D69">
+        <v>12643.23</v>
+      </c>
+      <c r="E69">
+        <v>0.1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1327.54</v>
+      </c>
+      <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>37</v>
-      </c>
-      <c r="D70" t="s">
-        <v>130</v>
-      </c>
-      <c r="E70">
-        <v>163.96</v>
-      </c>
-      <c r="F70" s="1">
-        <v>17753.38</v>
+        <v>35</v>
+      </c>
+      <c r="B70" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1">
+        <v>13970.77</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E71">
         <v>163.96</v>
       </c>
       <c r="F71" s="1">
-        <v>8913.3799999999992</v>
+        <v>17753.38</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" t="s">
-        <v>40</v>
-      </c>
-      <c r="G72" s="1">
-        <v>26666.76</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72">
+        <v>163.96</v>
+      </c>
+      <c r="F72" s="1">
+        <v>8913.3799999999992</v>
+      </c>
+      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>41</v>
-      </c>
-      <c r="F73" s="1">
-        <v>3063.98</v>
+        <v>35</v>
+      </c>
+      <c r="B73" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1">
+        <v>26666.76</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74" t="s">
-        <v>42</v>
-      </c>
-      <c r="G74" s="1">
+        <v>41</v>
+      </c>
+      <c r="F74" s="1">
         <v>3063.98</v>
       </c>
+      <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" t="s">
-        <v>132</v>
-      </c>
-      <c r="E75">
-        <v>125.64</v>
-      </c>
-      <c r="F75" s="1">
-        <v>3234.7</v>
-      </c>
-      <c r="G75" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="B75" t="s">
+        <v>42</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1">
+        <v>3063.98</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76" t="s">
-        <v>44</v>
-      </c>
-      <c r="G76" s="1">
+        <v>43</v>
+      </c>
+      <c r="D76" t="s">
+        <v>127</v>
+      </c>
+      <c r="E76">
+        <v>125.64</v>
+      </c>
+      <c r="F76" s="1">
         <v>3234.7</v>
       </c>
+      <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>45</v>
-      </c>
-      <c r="F77" s="1">
-        <v>46936.22</v>
-      </c>
-      <c r="G77" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1">
+        <v>3234.7</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F78" s="1">
-        <v>7589</v>
+        <v>46936.22</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" t="s">
-        <v>47</v>
-      </c>
-      <c r="G79" s="1">
-        <v>54525.22</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F79" s="1">
+        <v>7589</v>
+      </c>
+      <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>48</v>
-      </c>
-      <c r="D80">
-        <v>162.63999999999999</v>
-      </c>
-      <c r="G80" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G80" s="1">
+        <v>54525.22</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D81">
-        <v>25.75</v>
+        <v>162.63999999999999</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>25.75</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>50</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>57</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
         <v>7</v>
       </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
       <c r="E92" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>12</v>
       </c>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1943,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E93" t="s">
         <v>14</v>
@@ -1954,7 +1970,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1963,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
@@ -1975,338 +1991,351 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>59</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>32</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>32</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>0</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-    </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" t="s">
-        <v>60</v>
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>32.21</v>
-      </c>
-      <c r="F97">
-        <v>233.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>34</v>
-      </c>
-      <c r="D98">
+        <v>33</v>
+      </c>
+      <c r="D98" t="s">
+        <v>60</v>
+      </c>
+      <c r="E98">
+        <v>32.21</v>
+      </c>
+      <c r="F98">
         <v>233.26</v>
-      </c>
-      <c r="E98">
-        <v>0.1</v>
-      </c>
-      <c r="F98">
-        <v>24.49</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>35</v>
-      </c>
-      <c r="B99" t="s">
-        <v>36</v>
-      </c>
-      <c r="G99">
-        <v>257.75</v>
+        <v>34</v>
+      </c>
+      <c r="D99">
+        <v>233.26</v>
+      </c>
+      <c r="E99">
+        <v>0.1</v>
+      </c>
+      <c r="F99">
+        <v>24.49</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>37</v>
-      </c>
-      <c r="D100" t="s">
-        <v>60</v>
-      </c>
-      <c r="E100">
-        <v>163.96</v>
-      </c>
-      <c r="F100" s="1">
-        <v>1187.46</v>
+        <v>35</v>
+      </c>
+      <c r="B100" t="s">
+        <v>36</v>
+      </c>
+      <c r="F100" s="1"/>
+      <c r="G100">
+        <v>257.75</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D101" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E101">
         <v>163.96</v>
       </c>
-      <c r="F101">
-        <v>0</v>
+      <c r="F101" s="1">
+        <v>1187.46</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>35</v>
-      </c>
-      <c r="B102" t="s">
-        <v>40</v>
-      </c>
-      <c r="G102" s="1">
-        <v>1187.46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D102" t="s">
+        <v>61</v>
+      </c>
+      <c r="E102">
+        <v>163.96</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>41</v>
-      </c>
-      <c r="F103" s="1">
-        <v>1927.95</v>
+        <v>35</v>
+      </c>
+      <c r="B103" t="s">
+        <v>40</v>
+      </c>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1">
+        <v>1187.46</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>35</v>
-      </c>
-      <c r="B104" t="s">
-        <v>42</v>
-      </c>
-      <c r="G104" s="1">
+        <v>41</v>
+      </c>
+      <c r="F104" s="1">
         <v>1927.95</v>
       </c>
+      <c r="G104" s="1"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>43</v>
-      </c>
-      <c r="D105" t="s">
-        <v>133</v>
-      </c>
-      <c r="E105">
-        <v>125.64</v>
-      </c>
-      <c r="F105">
-        <v>526.82000000000005</v>
+        <v>35</v>
+      </c>
+      <c r="B105" t="s">
+        <v>42</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1927.95</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>35</v>
-      </c>
-      <c r="B106" t="s">
-        <v>44</v>
-      </c>
-      <c r="G106">
+        <v>43</v>
+      </c>
+      <c r="D106" t="s">
+        <v>128</v>
+      </c>
+      <c r="E106">
+        <v>125.64</v>
+      </c>
+      <c r="F106">
         <v>526.82000000000005</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>45</v>
-      </c>
-      <c r="F107" s="1">
-        <v>3899.97</v>
+        <v>35</v>
+      </c>
+      <c r="B107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="G107">
+        <v>526.82000000000005</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>35</v>
-      </c>
-      <c r="B108" t="s">
-        <v>47</v>
-      </c>
-      <c r="G108" s="1">
+        <v>45</v>
+      </c>
+      <c r="F108" s="1">
         <v>3899.97</v>
       </c>
+      <c r="G108" s="1"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>48</v>
-      </c>
-      <c r="D109">
-        <v>7.24</v>
+        <v>35</v>
+      </c>
+      <c r="B109" t="s">
+        <v>47</v>
+      </c>
+      <c r="G109" s="1">
+        <v>3899.97</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D110">
-        <v>4.1900000000000004</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>4.1900000000000004</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>124</v>
+        <v>50</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>7</v>
-      </c>
-      <c r="B120" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" t="s">
-        <v>10</v>
-      </c>
-      <c r="E120" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>63</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121">
-        <v>21.6</v>
-      </c>
-      <c r="D121">
-        <v>110</v>
-      </c>
-      <c r="E121">
-        <v>1.02</v>
-      </c>
-      <c r="F121">
-        <v>112.2</v>
+        <v>7</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>63</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>21.6</v>
+      </c>
+      <c r="D122">
+        <v>110</v>
+      </c>
+      <c r="E122">
+        <v>1.02</v>
+      </c>
+      <c r="F122">
+        <v>112.2</v>
+      </c>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>32</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>32</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E123" t="s">
         <v>32</v>
       </c>
-      <c r="G122" s="1"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>0</v>
-      </c>
-      <c r="B123">
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124">
         <v>21.6</v>
       </c>
-      <c r="E123">
+      <c r="E124">
         <v>112.2</v>
-      </c>
-      <c r="G123" s="1"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>34</v>
-      </c>
-      <c r="D124">
-        <v>112.2</v>
-      </c>
-      <c r="E124">
-        <v>0.1</v>
-      </c>
-      <c r="F124">
-        <v>11.78</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>35</v>
-      </c>
-      <c r="B125" t="s">
-        <v>36</v>
-      </c>
-      <c r="G125" s="1">
-        <v>123.98</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D125">
+        <v>112.2</v>
+      </c>
+      <c r="E125">
+        <v>0.1</v>
+      </c>
+      <c r="F125">
+        <v>11.78</v>
+      </c>
+      <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>37</v>
-      </c>
-      <c r="D126" t="s">
-        <v>61</v>
-      </c>
-      <c r="E126">
-        <v>163.96</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="B126" t="s">
+        <v>36</v>
+      </c>
+      <c r="G126">
+        <v>123.98</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D127" t="s">
         <v>61</v>
@@ -2320,187 +2349,181 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>35</v>
-      </c>
-      <c r="B128" t="s">
-        <v>40</v>
-      </c>
-      <c r="G128">
+        <v>39</v>
+      </c>
+      <c r="D128" t="s">
+        <v>61</v>
+      </c>
+      <c r="E128">
+        <v>163.96</v>
+      </c>
+      <c r="F128">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>41</v>
-      </c>
-      <c r="F129">
-        <v>788</v>
-      </c>
-      <c r="G129" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="B129" t="s">
+        <v>40</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>35</v>
-      </c>
-      <c r="B130" t="s">
-        <v>42</v>
-      </c>
-      <c r="G130">
+        <v>41</v>
+      </c>
+      <c r="F130">
         <v>788</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>43</v>
-      </c>
-      <c r="D131" t="s">
-        <v>134</v>
-      </c>
-      <c r="E131">
-        <v>125.64</v>
-      </c>
-      <c r="F131">
-        <v>122.69</v>
-      </c>
-      <c r="G131" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="B131" t="s">
+        <v>42</v>
+      </c>
+      <c r="G131" s="1">
+        <v>788</v>
+      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>35</v>
-      </c>
-      <c r="B132" t="s">
-        <v>44</v>
-      </c>
-      <c r="G132">
+        <v>43</v>
+      </c>
+      <c r="D132" t="s">
+        <v>129</v>
+      </c>
+      <c r="E132">
+        <v>125.64</v>
+      </c>
+      <c r="F132">
         <v>122.69</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>45</v>
-      </c>
-      <c r="F133" s="1">
-        <v>1034.67</v>
+        <v>35</v>
+      </c>
+      <c r="B133" t="s">
+        <v>44</v>
+      </c>
+      <c r="F133" s="1"/>
+      <c r="G133">
+        <v>122.69</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>35</v>
-      </c>
-      <c r="B134" t="s">
-        <v>47</v>
-      </c>
-      <c r="G134" s="1">
+        <v>45</v>
+      </c>
+      <c r="F134" s="1">
         <v>1034.67</v>
       </c>
+      <c r="G134" s="1"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>48</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="B135" t="s">
+        <v>47</v>
+      </c>
+      <c r="G135" s="1">
+        <v>1034.67</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D136">
-        <v>0.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>124</v>
+        <v>50</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>7</v>
-      </c>
-      <c r="B146" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" t="s">
-        <v>10</v>
-      </c>
-      <c r="E146" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>13</v>
-      </c>
-      <c r="B147">
-        <v>0</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147">
         <v>7</v>
       </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" t="s">
+        <v>10</v>
+      </c>
       <c r="E147" t="s">
-        <v>14</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F147" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -2509,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>963</v>
+        <v>7</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
@@ -2520,54 +2543,60 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>963</v>
+      </c>
+      <c r="E149" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>32</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>32</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E150" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>0</v>
-      </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-    </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>35</v>
-      </c>
-      <c r="B151" t="s">
-        <v>36</v>
-      </c>
-      <c r="G151">
+      <c r="A151">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="E151">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>37</v>
-      </c>
-      <c r="D152" t="s">
-        <v>61</v>
-      </c>
-      <c r="E152">
-        <v>163.96</v>
-      </c>
-      <c r="F152">
+        <v>35</v>
+      </c>
+      <c r="B152" t="s">
+        <v>36</v>
+      </c>
+      <c r="G152">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D153" t="s">
         <v>61</v>
@@ -2581,286 +2610,296 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>35</v>
-      </c>
-      <c r="B154" t="s">
-        <v>40</v>
-      </c>
-      <c r="G154">
+        <v>39</v>
+      </c>
+      <c r="D154" t="s">
+        <v>61</v>
+      </c>
+      <c r="E154">
+        <v>163.96</v>
+      </c>
+      <c r="F154">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>41</v>
-      </c>
-      <c r="F155" s="1">
-        <v>7698.57</v>
+        <v>35</v>
+      </c>
+      <c r="B155" t="s">
+        <v>40</v>
+      </c>
+      <c r="F155" s="1"/>
+      <c r="G155">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>35</v>
-      </c>
-      <c r="B156" t="s">
-        <v>42</v>
-      </c>
-      <c r="G156" s="1">
+        <v>41</v>
+      </c>
+      <c r="F156" s="1">
         <v>7698.57</v>
       </c>
+      <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>43</v>
-      </c>
-      <c r="D157" t="s">
-        <v>135</v>
-      </c>
-      <c r="E157">
-        <v>125.64</v>
-      </c>
-      <c r="F157">
-        <v>819.13</v>
+        <v>35</v>
+      </c>
+      <c r="B157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G157" s="1">
+        <v>7698.57</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>35</v>
-      </c>
-      <c r="B158" t="s">
-        <v>44</v>
-      </c>
-      <c r="G158">
+        <v>43</v>
+      </c>
+      <c r="D158" t="s">
+        <v>130</v>
+      </c>
+      <c r="E158">
+        <v>125.64</v>
+      </c>
+      <c r="F158">
         <v>819.13</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>45</v>
-      </c>
-      <c r="F159" s="1">
-        <v>8517.7000000000007</v>
+        <v>35</v>
+      </c>
+      <c r="B159" t="s">
+        <v>44</v>
+      </c>
+      <c r="F159" s="1"/>
+      <c r="G159">
+        <v>819.13</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>46</v>
-      </c>
-      <c r="F160">
-        <v>785</v>
+        <v>45</v>
+      </c>
+      <c r="F160" s="1">
+        <v>8517.7000000000007</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>35</v>
-      </c>
-      <c r="B161" t="s">
-        <v>47</v>
-      </c>
-      <c r="G161" s="1">
-        <v>9302.7000000000007</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F161">
+        <v>785</v>
+      </c>
+      <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>48</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="B162" t="s">
+        <v>47</v>
+      </c>
+      <c r="G162" s="1">
+        <v>9302.7000000000007</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D163">
-        <v>6.52</v>
+        <v>0</v>
       </c>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>124</v>
+        <v>50</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
       </c>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>68</v>
-      </c>
-      <c r="B173" t="s">
-        <v>69</v>
-      </c>
-      <c r="C173" t="s">
-        <v>70</v>
-      </c>
-      <c r="D173" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>72</v>
-      </c>
-      <c r="B174" s="1">
-        <v>407429.16</v>
-      </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="E174">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C174" t="s">
+        <v>70</v>
+      </c>
+      <c r="D174" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>72</v>
+      </c>
+      <c r="B175" s="1">
+        <v>413691.9</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" t="s">
         <v>32</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C176" t="s">
         <v>32</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D176" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>407429.16</v>
-      </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-    </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>73</v>
+      <c r="A177" s="1">
+        <v>413691.9</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
       </c>
       <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C178">
-        <v>3027.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C179" s="2">
-        <v>186949.86</v>
+        <v>3048.96</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C180" s="2">
-        <v>29539.74</v>
+        <v>189466.28</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C181" s="2">
-        <v>407429.16</v>
+        <v>30123.52</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C182" s="2">
-        <v>407429.16</v>
+        <v>413691.9</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>77</v>
-      </c>
-      <c r="B183">
-        <v>409.89</v>
+        <v>76</v>
+      </c>
+      <c r="C183" s="2">
+        <v>413691.9</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B184">
-        <v>235.12</v>
+        <v>425.05</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>239.77</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -2868,462 +2907,467 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>20</v>
-      </c>
-      <c r="B199">
-        <v>0</v>
-      </c>
-      <c r="C199">
-        <v>1399</v>
-      </c>
-      <c r="D199">
-        <v>0</v>
-      </c>
-      <c r="E199">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>32</v>
-      </c>
-      <c r="B200" t="s">
-        <v>32</v>
-      </c>
-      <c r="C200" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>1399</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
       </c>
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>86</v>
-      </c>
-      <c r="C201">
-        <v>1399</v>
-      </c>
-      <c r="D201">
-        <v>0</v>
-      </c>
-      <c r="E201">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="B201" t="s">
+        <v>32</v>
+      </c>
+      <c r="C201" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="C202">
+        <v>1399</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>29</v>
-      </c>
-      <c r="B206">
-        <v>8</v>
-      </c>
-      <c r="C206">
-        <v>22</v>
-      </c>
-      <c r="D206">
-        <v>0.17599999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C207">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B208">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C208">
-        <v>9594</v>
+        <v>980</v>
       </c>
       <c r="D208">
-        <v>227.61600000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B209">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C209">
-        <v>7269</v>
+        <v>9594</v>
       </c>
       <c r="D209">
-        <v>344.59199999999998</v>
+        <v>227.61600000000001</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="B210">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="C210">
-        <v>1803</v>
+        <v>7269</v>
       </c>
       <c r="D210">
-        <v>256.75200000000001</v>
+        <v>344.59199999999998</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B211">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="C211">
-        <v>2013</v>
+        <v>1803</v>
       </c>
       <c r="D211">
-        <v>143.49600000000001</v>
+        <v>256.75200000000001</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B212">
         <v>72</v>
       </c>
       <c r="C212">
-        <v>135</v>
+        <v>2013</v>
       </c>
       <c r="D212">
-        <v>9</v>
+        <v>143.49600000000001</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B213">
-        <v>288</v>
+        <v>72</v>
       </c>
       <c r="C213">
-        <v>646</v>
+        <v>235</v>
       </c>
       <c r="D213">
-        <v>183.16800000000001</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="B214" s="1">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="C214">
-        <v>2618</v>
+        <v>100</v>
       </c>
       <c r="D214">
-        <v>559.00800000000004</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B215">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="C215">
-        <v>2478</v>
+        <v>646</v>
       </c>
       <c r="D215">
-        <v>176.256</v>
+        <v>183.16800000000001</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B216" s="1">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="C216">
-        <v>1846</v>
+        <v>2618</v>
       </c>
       <c r="D216">
-        <v>262.94400000000002</v>
+        <v>559.00800000000004</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B217">
-        <v>432</v>
+        <v>72</v>
       </c>
       <c r="C217">
-        <v>1970</v>
+        <v>2478</v>
       </c>
       <c r="D217">
-        <v>842.4</v>
+        <v>176.256</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B218">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="C218">
-        <v>3</v>
+        <v>1846</v>
       </c>
       <c r="D218">
-        <v>3.5999999999999997E-2</v>
+        <v>262.94400000000002</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B219">
-        <v>216</v>
+        <v>432</v>
       </c>
       <c r="C219">
-        <v>110</v>
+        <v>1970</v>
       </c>
       <c r="D219">
-        <v>21.6</v>
+        <v>842.4</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>32</v>
-      </c>
-      <c r="B220" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="B220">
+        <v>12</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+      <c r="D220">
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>86</v>
+        <v>63</v>
+      </c>
+      <c r="B221">
+        <v>216</v>
       </c>
       <c r="C221" s="2">
-        <v>31487</v>
+        <v>110</v>
       </c>
       <c r="D221">
-        <v>3027.0439999999999</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>124</v>
+        <v>32</v>
+      </c>
+      <c r="B222" t="s">
+        <v>32</v>
       </c>
       <c r="C222" s="2"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1</v>
-      </c>
-      <c r="C223" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="C223" s="2">
+        <v>31687</v>
+      </c>
+      <c r="D223">
+        <v>3048.6439999999998</v>
+      </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="C224" s="2"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>98</v>
-      </c>
-      <c r="B241">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>99</v>
-      </c>
-      <c r="B242">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -3331,7 +3375,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -3339,39 +3383,39 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B245">
-        <v>0</v>
-      </c>
-      <c r="C245">
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>99</v>
-      </c>
-      <c r="B248">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -3379,7 +3423,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -3387,39 +3431,39 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B251">
-        <v>0</v>
-      </c>
-      <c r="C251">
         <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
         <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>99</v>
-      </c>
-      <c r="B254">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -3427,7 +3471,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -3435,39 +3479,39 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B257">
-        <v>0</v>
-      </c>
-      <c r="C257">
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>99</v>
-      </c>
-      <c r="B260">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -3475,7 +3519,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -3483,39 +3527,39 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B263">
-        <v>0</v>
-      </c>
-      <c r="C263">
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>99</v>
-      </c>
-      <c r="B266">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -3523,7 +3567,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -3531,147 +3575,118 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B269">
-        <v>0</v>
-      </c>
-      <c r="C269">
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>32</v>
+        <v>101</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>0</v>
+      <c r="A272" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275">
-        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>1</v>
+      <c r="A277">
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>112</v>
-      </c>
-      <c r="B283" t="s">
-        <v>113</v>
-      </c>
-      <c r="C283" t="s">
-        <v>114</v>
-      </c>
-      <c r="D283" t="s">
-        <v>115</v>
-      </c>
-      <c r="E283" t="s">
-        <v>116</v>
-      </c>
-      <c r="F283" t="s">
-        <v>117</v>
-      </c>
-      <c r="G283" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>72</v>
-      </c>
-      <c r="B284" t="s">
-        <v>118</v>
-      </c>
-      <c r="C284" t="s">
-        <v>119</v>
-      </c>
-      <c r="D284" t="s">
-        <v>120</v>
-      </c>
-      <c r="E284">
-        <v>132.15</v>
-      </c>
-      <c r="F284">
-        <v>163.96</v>
-      </c>
-      <c r="G284" s="1">
-        <v>21667.31</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G284" s="1"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="B285" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C285" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D285" t="s">
-        <v>120</v>
-      </c>
-      <c r="E285">
-        <v>114.22</v>
-      </c>
-      <c r="F285">
-        <v>163.96</v>
-      </c>
-      <c r="G285" s="1">
-        <v>18727.509999999998</v>
+        <v>115</v>
+      </c>
+      <c r="E285" t="s">
+        <v>116</v>
+      </c>
+      <c r="F285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -3679,7 +3694,7 @@
         <v>72</v>
       </c>
       <c r="B286" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C286" t="s">
         <v>119</v>
@@ -3688,13 +3703,13 @@
         <v>120</v>
       </c>
       <c r="E286">
-        <v>163.29</v>
+        <v>132.15</v>
       </c>
       <c r="F286">
         <v>163.96</v>
       </c>
       <c r="G286" s="1">
-        <v>26773.03</v>
+        <v>21667.31</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -3702,7 +3717,7 @@
         <v>72</v>
       </c>
       <c r="B287" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C287" t="s">
         <v>119</v>
@@ -3711,29 +3726,75 @@
         <v>120</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>129.38999999999999</v>
       </c>
       <c r="F287">
         <v>163.96</v>
       </c>
-      <c r="G287">
-        <v>0</v>
+      <c r="G287" s="1">
+        <v>21214.78</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>72</v>
+      </c>
+      <c r="B288" t="s">
+        <v>122</v>
+      </c>
+      <c r="C288" t="s">
+        <v>119</v>
+      </c>
+      <c r="D288" t="s">
+        <v>120</v>
+      </c>
+      <c r="E288">
+        <v>163.29</v>
+      </c>
+      <c r="F288">
+        <v>163.96</v>
+      </c>
+      <c r="G288" s="1">
+        <v>26773.03</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>72</v>
+      </c>
+      <c r="B289" t="s">
+        <v>123</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D289" t="s">
+        <v>120</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>163.96</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>32</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C290" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289">
-        <v>409.66</v>
-      </c>
-      <c r="C289" s="1">
-        <v>67205.649999999994</v>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>424.83</v>
+      </c>
+      <c r="C291" s="1">
+        <v>69691.58</v>
       </c>
     </row>
     <row r="339" spans="7:7" x14ac:dyDescent="0.25">
